--- a/Excel-XLSX/UN-CAR.xlsx
+++ b/Excel-XLSX/UN-CAR.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5nS1Zr</t>
+    <t>KTp76Q</t>
   </si>
   <si>
     <t>1993</t>
@@ -570,10 +570,10 @@
     <t>86</t>
   </si>
   <si>
-    <t>485825</t>
-  </si>
-  <si>
-    <t>101873</t>
+    <t>511803</t>
+  </si>
+  <si>
+    <t>325938</t>
   </si>
   <si>
     <t>87</t>
@@ -1017,10 +1017,10 @@
     <t>135</t>
   </si>
   <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>31833</t>
+    <t>1489</t>
+  </si>
+  <si>
+    <t>32171</t>
   </si>
   <si>
     <t>136</t>
@@ -1506,114 +1506,117 @@
     <t>226</t>
   </si>
   <si>
-    <t>6384</t>
+    <t>6411</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GAM</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>ICO</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
   </si>
   <si>
     <t>252</t>
   </si>
   <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>GAM</t>
-  </si>
-  <si>
-    <t>GMB</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>GNB</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>ICO</t>
-  </si>
-  <si>
-    <t>CIV</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
     <t>253</t>
   </si>
   <si>
@@ -1683,9 +1686,6 @@
     <t>274</t>
   </si>
   <si>
-    <t>275</t>
-  </si>
-  <si>
     <t>276</t>
   </si>
   <si>
@@ -2301,253 +2301,253 @@
     <t>420</t>
   </si>
   <si>
+    <t>21816</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>4912</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>2573</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>2235</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>2665</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>2786</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>United Rep. of Tanzania</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TOG</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
     <t>481</t>
-  </si>
-  <si>
-    <t>12453</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>4912</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>2049</t>
-  </si>
-  <si>
-    <t>2070</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>2573</t>
-  </si>
-  <si>
-    <t>2071</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>2235</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>1894</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>963</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>2665</t>
-  </si>
-  <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>2726</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>United Rep. of Tanzania</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>TOG</t>
-  </si>
-  <si>
-    <t>TGO</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>463</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>480</t>
   </si>
   <si>
     <t>482</t>
@@ -3168,8 +3168,8 @@
       <c r="U2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>36</v>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -3236,8 +3236,8 @@
       <c r="U3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>36</v>
+      <c r="V3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -3304,8 +3304,8 @@
       <c r="U4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>36</v>
+      <c r="V4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -3372,8 +3372,8 @@
       <c r="U5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>36</v>
+      <c r="V5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -3440,8 +3440,8 @@
       <c r="U6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>36</v>
+      <c r="V6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -3508,8 +3508,8 @@
       <c r="U7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>36</v>
+      <c r="V7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -3576,8 +3576,8 @@
       <c r="U8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>36</v>
+      <c r="V8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -3644,8 +3644,8 @@
       <c r="U9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>36</v>
+      <c r="V9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -3712,8 +3712,8 @@
       <c r="U10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>36</v>
+      <c r="V10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -3780,8 +3780,8 @@
       <c r="U11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>36</v>
+      <c r="V11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -3848,8 +3848,8 @@
       <c r="U12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>36</v>
+      <c r="V12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -3916,8 +3916,8 @@
       <c r="U13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>36</v>
+      <c r="V13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -3984,8 +3984,8 @@
       <c r="U14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>36</v>
+      <c r="V14" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -4052,8 +4052,8 @@
       <c r="U15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>36</v>
+      <c r="V15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -4120,8 +4120,8 @@
       <c r="U16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>36</v>
+      <c r="V16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -4188,8 +4188,8 @@
       <c r="U17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>36</v>
+      <c r="V17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -4256,8 +4256,8 @@
       <c r="U18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>36</v>
+      <c r="V18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -4324,8 +4324,8 @@
       <c r="U19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>36</v>
+      <c r="V19" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -4392,8 +4392,8 @@
       <c r="U20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>36</v>
+      <c r="V20" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -4460,8 +4460,8 @@
       <c r="U21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>36</v>
+      <c r="V21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -4528,8 +4528,8 @@
       <c r="U22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>36</v>
+      <c r="V22" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -4596,8 +4596,8 @@
       <c r="U23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>36</v>
+      <c r="V23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -4664,8 +4664,8 @@
       <c r="U24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>36</v>
+      <c r="V24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -4732,8 +4732,8 @@
       <c r="U25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>36</v>
+      <c r="V25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -4800,8 +4800,8 @@
       <c r="U26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>36</v>
+      <c r="V26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -4868,8 +4868,8 @@
       <c r="U27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>36</v>
+      <c r="V27" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -4936,8 +4936,8 @@
       <c r="U28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>36</v>
+      <c r="V28" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -5004,8 +5004,8 @@
       <c r="U29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>36</v>
+      <c r="V29" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -5072,8 +5072,8 @@
       <c r="U30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>36</v>
+      <c r="V30" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -5185,7 +5185,7 @@
         <v>32</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>34</v>
@@ -5276,8 +5276,8 @@
       <c r="U33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>36</v>
+      <c r="V33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -5344,8 +5344,8 @@
       <c r="U34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>36</v>
+      <c r="V34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -5412,8 +5412,8 @@
       <c r="U35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>36</v>
+      <c r="V35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -5480,8 +5480,8 @@
       <c r="U36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>36</v>
+      <c r="V36" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -5548,8 +5548,8 @@
       <c r="U37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>36</v>
+      <c r="V37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -5616,8 +5616,8 @@
       <c r="U38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>36</v>
+      <c r="V38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -5684,8 +5684,8 @@
       <c r="U39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>36</v>
+      <c r="V39" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5752,8 +5752,8 @@
       <c r="U40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>36</v>
+      <c r="V40" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -5820,8 +5820,8 @@
       <c r="U41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>36</v>
+      <c r="V41" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -5888,8 +5888,8 @@
       <c r="U42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>36</v>
+      <c r="V42" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -5956,8 +5956,8 @@
       <c r="U43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>36</v>
+      <c r="V43" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -6024,8 +6024,8 @@
       <c r="U44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>36</v>
+      <c r="V44" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -6092,8 +6092,8 @@
       <c r="U45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>36</v>
+      <c r="V45" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -6160,8 +6160,8 @@
       <c r="U46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>36</v>
+      <c r="V46" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -6228,8 +6228,8 @@
       <c r="U47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>36</v>
+      <c r="V47" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -6296,8 +6296,8 @@
       <c r="U48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>36</v>
+      <c r="V48" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -6364,8 +6364,8 @@
       <c r="U49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>36</v>
+      <c r="V49" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -6432,8 +6432,8 @@
       <c r="U50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>36</v>
+      <c r="V50" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -6500,8 +6500,8 @@
       <c r="U51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>36</v>
+      <c r="V51" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -6568,8 +6568,8 @@
       <c r="U52" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>36</v>
+      <c r="V52" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -6636,8 +6636,8 @@
       <c r="U53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>36</v>
+      <c r="V53" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -6704,8 +6704,8 @@
       <c r="U54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>36</v>
+      <c r="V54" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -6772,8 +6772,8 @@
       <c r="U55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>36</v>
+      <c r="V55" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -6840,8 +6840,8 @@
       <c r="U56" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>36</v>
+      <c r="V56" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -6908,8 +6908,8 @@
       <c r="U57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>36</v>
+      <c r="V57" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -6976,8 +6976,8 @@
       <c r="U58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>36</v>
+      <c r="V58" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -7044,8 +7044,8 @@
       <c r="U59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>36</v>
+      <c r="V59" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -7112,8 +7112,8 @@
       <c r="U60" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>36</v>
+      <c r="V60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -7180,8 +7180,8 @@
       <c r="U61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>36</v>
+      <c r="V61" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -7384,8 +7384,8 @@
       <c r="U64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>36</v>
+      <c r="V64" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -7452,8 +7452,8 @@
       <c r="U65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>36</v>
+      <c r="V65" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -7520,8 +7520,8 @@
       <c r="U66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>36</v>
+      <c r="V66" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -7588,8 +7588,8 @@
       <c r="U67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>36</v>
+      <c r="V67" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -7656,8 +7656,8 @@
       <c r="U68" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>36</v>
+      <c r="V68" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -7724,8 +7724,8 @@
       <c r="U69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>36</v>
+      <c r="V69" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -7792,8 +7792,8 @@
       <c r="U70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>36</v>
+      <c r="V70" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -7860,8 +7860,8 @@
       <c r="U71" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>36</v>
+      <c r="V71" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -7928,8 +7928,8 @@
       <c r="U72" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>36</v>
+      <c r="V72" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -7996,8 +7996,8 @@
       <c r="U73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>36</v>
+      <c r="V73" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -8064,8 +8064,8 @@
       <c r="U74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>36</v>
+      <c r="V74" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -8132,8 +8132,8 @@
       <c r="U75" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>36</v>
+      <c r="V75" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -8200,8 +8200,8 @@
       <c r="U76" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>36</v>
+      <c r="V76" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -8268,8 +8268,8 @@
       <c r="U77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>36</v>
+      <c r="V77" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -8336,8 +8336,8 @@
       <c r="U78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>36</v>
+      <c r="V78" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -8404,8 +8404,8 @@
       <c r="U79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>36</v>
+      <c r="V79" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -8472,8 +8472,8 @@
       <c r="U80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>36</v>
+      <c r="V80" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -8540,8 +8540,8 @@
       <c r="U81" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>36</v>
+      <c r="V81" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82">
@@ -8608,8 +8608,8 @@
       <c r="U82" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>36</v>
+      <c r="V82" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
@@ -8676,8 +8676,8 @@
       <c r="U83" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>36</v>
+      <c r="V83" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -8744,8 +8744,8 @@
       <c r="U84" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>36</v>
+      <c r="V84" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -8812,8 +8812,8 @@
       <c r="U85" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>36</v>
+      <c r="V85" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -9016,8 +9016,8 @@
       <c r="U88" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>36</v>
+      <c r="V88" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -9084,8 +9084,8 @@
       <c r="U89" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>36</v>
+      <c r="V89" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -9152,8 +9152,8 @@
       <c r="U90" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>36</v>
+      <c r="V90" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91">
@@ -9220,8 +9220,8 @@
       <c r="U91" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>36</v>
+      <c r="V91" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -9288,8 +9288,8 @@
       <c r="U92" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>36</v>
+      <c r="V92" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -9356,8 +9356,8 @@
       <c r="U93" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>36</v>
+      <c r="V93" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="94">
@@ -9424,8 +9424,8 @@
       <c r="U94" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>36</v>
+      <c r="V94" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -9492,8 +9492,8 @@
       <c r="U95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>36</v>
+      <c r="V95" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -9560,8 +9560,8 @@
       <c r="U96" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>36</v>
+      <c r="V96" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97">
@@ -9628,8 +9628,8 @@
       <c r="U97" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>36</v>
+      <c r="V97" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="98">
@@ -9696,8 +9696,8 @@
       <c r="U98" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>36</v>
+      <c r="V98" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -9764,8 +9764,8 @@
       <c r="U99" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>36</v>
+      <c r="V99" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="100">
@@ -9832,8 +9832,8 @@
       <c r="U100" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>36</v>
+      <c r="V100" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101">
@@ -9900,8 +9900,8 @@
       <c r="U101" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>36</v>
+      <c r="V101" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102">
@@ -9968,8 +9968,8 @@
       <c r="U102" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>36</v>
+      <c r="V102" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -10036,8 +10036,8 @@
       <c r="U103" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>36</v>
+      <c r="V103" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="104">
@@ -10104,8 +10104,8 @@
       <c r="U104" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>36</v>
+      <c r="V104" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105">
@@ -10172,8 +10172,8 @@
       <c r="U105" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>36</v>
+      <c r="V105" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -10240,8 +10240,8 @@
       <c r="U106" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>36</v>
+      <c r="V106" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="107">
@@ -10308,8 +10308,8 @@
       <c r="U107" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>36</v>
+      <c r="V107" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108">
@@ -10376,8 +10376,8 @@
       <c r="U108" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>36</v>
+      <c r="V108" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -10444,8 +10444,8 @@
       <c r="U109" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>36</v>
+      <c r="V109" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="110">
@@ -10512,8 +10512,8 @@
       <c r="U110" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>36</v>
+      <c r="V110" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -10580,8 +10580,8 @@
       <c r="U111" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>36</v>
+      <c r="V111" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="112">
@@ -10648,8 +10648,8 @@
       <c r="U112" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>36</v>
+      <c r="V112" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="113">
@@ -10716,8 +10716,8 @@
       <c r="U113" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>36</v>
+      <c r="V113" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -10784,8 +10784,8 @@
       <c r="U114" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>36</v>
+      <c r="V114" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="115">
@@ -10852,8 +10852,8 @@
       <c r="U115" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>36</v>
+      <c r="V115" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="116">
@@ -10920,8 +10920,8 @@
       <c r="U116" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>36</v>
+      <c r="V116" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="117">
@@ -10988,8 +10988,8 @@
       <c r="U117" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>36</v>
+      <c r="V117" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="118">
@@ -11056,8 +11056,8 @@
       <c r="U118" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>36</v>
+      <c r="V118" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="119">
@@ -11124,8 +11124,8 @@
       <c r="U119" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>36</v>
+      <c r="V119" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="120">
@@ -11192,8 +11192,8 @@
       <c r="U120" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>36</v>
+      <c r="V120" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="121">
@@ -11260,8 +11260,8 @@
       <c r="U121" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>36</v>
+      <c r="V121" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="122">
@@ -11328,8 +11328,8 @@
       <c r="U122" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>36</v>
+      <c r="V122" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="123">
@@ -11396,8 +11396,8 @@
       <c r="U123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>36</v>
+      <c r="V123" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="124">
@@ -11464,8 +11464,8 @@
       <c r="U124" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>36</v>
+      <c r="V124" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="125">
@@ -11532,8 +11532,8 @@
       <c r="U125" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>36</v>
+      <c r="V125" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="126">
@@ -11600,8 +11600,8 @@
       <c r="U126" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>36</v>
+      <c r="V126" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="127">
@@ -11668,8 +11668,8 @@
       <c r="U127" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>36</v>
+      <c r="V127" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="128">
@@ -11736,8 +11736,8 @@
       <c r="U128" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>36</v>
+      <c r="V128" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="129">
@@ -11804,8 +11804,8 @@
       <c r="U129" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>36</v>
+      <c r="V129" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="130">
@@ -11872,8 +11872,8 @@
       <c r="U130" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>36</v>
+      <c r="V130" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="131">
@@ -11940,8 +11940,8 @@
       <c r="U131" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>36</v>
+      <c r="V131" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="132">
@@ -12008,8 +12008,8 @@
       <c r="U132" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>36</v>
+      <c r="V132" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="133">
@@ -12076,8 +12076,8 @@
       <c r="U133" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>36</v>
+      <c r="V133" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="134">
@@ -12144,8 +12144,8 @@
       <c r="U134" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>36</v>
+      <c r="V134" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="135">
@@ -12348,8 +12348,8 @@
       <c r="U137" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>36</v>
+      <c r="V137" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="138">
@@ -12416,8 +12416,8 @@
       <c r="U138" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>36</v>
+      <c r="V138" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="139">
@@ -12484,8 +12484,8 @@
       <c r="U139" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>36</v>
+      <c r="V139" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="140">
@@ -12552,8 +12552,8 @@
       <c r="U140" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>36</v>
+      <c r="V140" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="141">
@@ -12620,8 +12620,8 @@
       <c r="U141" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>36</v>
+      <c r="V141" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="142">
@@ -12688,8 +12688,8 @@
       <c r="U142" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>36</v>
+      <c r="V142" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="143">
@@ -12756,8 +12756,8 @@
       <c r="U143" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>36</v>
+      <c r="V143" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="144">
@@ -12824,8 +12824,8 @@
       <c r="U144" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>36</v>
+      <c r="V144" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="145">
@@ -12892,8 +12892,8 @@
       <c r="U145" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>36</v>
+      <c r="V145" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="146">
@@ -12960,8 +12960,8 @@
       <c r="U146" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>36</v>
+      <c r="V146" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="147">
@@ -13028,8 +13028,8 @@
       <c r="U147" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>36</v>
+      <c r="V147" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="148">
@@ -13096,8 +13096,8 @@
       <c r="U148" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>36</v>
+      <c r="V148" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="149">
@@ -13164,8 +13164,8 @@
       <c r="U149" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>36</v>
+      <c r="V149" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="150">
@@ -13232,8 +13232,8 @@
       <c r="U150" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>36</v>
+      <c r="V150" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="151">
@@ -13300,8 +13300,8 @@
       <c r="U151" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>36</v>
+      <c r="V151" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="152">
@@ -13368,8 +13368,8 @@
       <c r="U152" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>36</v>
+      <c r="V152" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="153">
@@ -13436,8 +13436,8 @@
       <c r="U153" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>36</v>
+      <c r="V153" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="154">
@@ -13504,8 +13504,8 @@
       <c r="U154" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>36</v>
+      <c r="V154" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="155">
@@ -13572,8 +13572,8 @@
       <c r="U155" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>36</v>
+      <c r="V155" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="156">
@@ -13640,8 +13640,8 @@
       <c r="U156" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>36</v>
+      <c r="V156" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="157">
@@ -13708,8 +13708,8 @@
       <c r="U157" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>36</v>
+      <c r="V157" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="158">
@@ -13776,8 +13776,8 @@
       <c r="U158" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>36</v>
+      <c r="V158" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="159">
@@ -13889,10 +13889,10 @@
         <v>32</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P160" s="2" t="s">
         <v>34</v>
@@ -13980,8 +13980,8 @@
       <c r="U161" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>36</v>
+      <c r="V161" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="162">
@@ -14048,8 +14048,8 @@
       <c r="U162" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>36</v>
+      <c r="V162" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="163">
@@ -14116,8 +14116,8 @@
       <c r="U163" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>36</v>
+      <c r="V163" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="164">
@@ -14184,8 +14184,8 @@
       <c r="U164" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>36</v>
+      <c r="V164" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="165">
@@ -14252,8 +14252,8 @@
       <c r="U165" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>36</v>
+      <c r="V165" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="166">
@@ -14320,8 +14320,8 @@
       <c r="U166" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>36</v>
+      <c r="V166" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="167">
@@ -14388,8 +14388,8 @@
       <c r="U167" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>36</v>
+      <c r="V167" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="168">
@@ -14456,8 +14456,8 @@
       <c r="U168" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>36</v>
+      <c r="V168" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="169">
@@ -14524,8 +14524,8 @@
       <c r="U169" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>36</v>
+      <c r="V169" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="170">
@@ -14592,8 +14592,8 @@
       <c r="U170" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>36</v>
+      <c r="V170" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="171">
@@ -14660,8 +14660,8 @@
       <c r="U171" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>36</v>
+      <c r="V171" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="172">
@@ -14728,8 +14728,8 @@
       <c r="U172" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>36</v>
+      <c r="V172" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="173">
@@ -14796,8 +14796,8 @@
       <c r="U173" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>36</v>
+      <c r="V173" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="174">
@@ -14864,8 +14864,8 @@
       <c r="U174" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>36</v>
+      <c r="V174" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="175">
@@ -14932,8 +14932,8 @@
       <c r="U175" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>36</v>
+      <c r="V175" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="176">
@@ -15000,8 +15000,8 @@
       <c r="U176" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>36</v>
+      <c r="V176" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="177">
@@ -15068,8 +15068,8 @@
       <c r="U177" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>36</v>
+      <c r="V177" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="178">
@@ -15136,8 +15136,8 @@
       <c r="U178" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>36</v>
+      <c r="V178" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="179">
@@ -15204,8 +15204,8 @@
       <c r="U179" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>36</v>
+      <c r="V179" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="180">
@@ -15272,8 +15272,8 @@
       <c r="U180" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>36</v>
+      <c r="V180" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="181">
@@ -15340,8 +15340,8 @@
       <c r="U181" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>36</v>
+      <c r="V181" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="182">
@@ -15408,8 +15408,8 @@
       <c r="U182" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>36</v>
+      <c r="V182" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="183">
@@ -15476,8 +15476,8 @@
       <c r="U183" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>36</v>
+      <c r="V183" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="184">
@@ -15544,8 +15544,8 @@
       <c r="U184" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>36</v>
+      <c r="V184" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="185">
@@ -15612,8 +15612,8 @@
       <c r="U185" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>36</v>
+      <c r="V185" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="186">
@@ -15680,8 +15680,8 @@
       <c r="U186" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>36</v>
+      <c r="V186" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="187">
@@ -15796,7 +15796,7 @@
         <v>69</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P188" s="2" t="s">
         <v>34</v>
@@ -15884,8 +15884,8 @@
       <c r="U189" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>36</v>
+      <c r="V189" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="190">
@@ -15952,8 +15952,8 @@
       <c r="U190" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>36</v>
+      <c r="V190" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="191">
@@ -16020,8 +16020,8 @@
       <c r="U191" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>36</v>
+      <c r="V191" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="192">
@@ -16088,8 +16088,8 @@
       <c r="U192" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>36</v>
+      <c r="V192" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="193">
@@ -16156,8 +16156,8 @@
       <c r="U193" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>36</v>
+      <c r="V193" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="194">
@@ -16224,8 +16224,8 @@
       <c r="U194" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>36</v>
+      <c r="V194" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="195">
@@ -16292,8 +16292,8 @@
       <c r="U195" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>36</v>
+      <c r="V195" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="196">
@@ -16360,8 +16360,8 @@
       <c r="U196" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>36</v>
+      <c r="V196" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="197">
@@ -16428,8 +16428,8 @@
       <c r="U197" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>36</v>
+      <c r="V197" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="198">
@@ -16496,8 +16496,8 @@
       <c r="U198" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>36</v>
+      <c r="V198" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="199">
@@ -16564,8 +16564,8 @@
       <c r="U199" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>36</v>
+      <c r="V199" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="200">
@@ -16632,8 +16632,8 @@
       <c r="U200" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>36</v>
+      <c r="V200" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="201">
@@ -16700,8 +16700,8 @@
       <c r="U201" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>36</v>
+      <c r="V201" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="202">
@@ -16768,8 +16768,8 @@
       <c r="U202" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>36</v>
+      <c r="V202" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="203">
@@ -16836,8 +16836,8 @@
       <c r="U203" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>36</v>
+      <c r="V203" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="204">
@@ -16904,8 +16904,8 @@
       <c r="U204" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>36</v>
+      <c r="V204" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="205">
@@ -16972,8 +16972,8 @@
       <c r="U205" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>36</v>
+      <c r="V205" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="206">
@@ -17040,8 +17040,8 @@
       <c r="U206" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>36</v>
+      <c r="V206" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="207">
@@ -17108,8 +17108,8 @@
       <c r="U207" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>36</v>
+      <c r="V207" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="208">
@@ -17176,8 +17176,8 @@
       <c r="U208" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>36</v>
+      <c r="V208" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="209">
@@ -17244,8 +17244,8 @@
       <c r="U209" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>36</v>
+      <c r="V209" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="210">
@@ -17312,8 +17312,8 @@
       <c r="U210" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>36</v>
+      <c r="V210" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="211">
@@ -17380,8 +17380,8 @@
       <c r="U211" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>36</v>
+      <c r="V211" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="212">
@@ -17448,8 +17448,8 @@
       <c r="U212" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>36</v>
+      <c r="V212" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="213">
@@ -17516,8 +17516,8 @@
       <c r="U213" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>36</v>
+      <c r="V213" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="214">
@@ -17584,8 +17584,8 @@
       <c r="U214" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>36</v>
+      <c r="V214" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="215">
@@ -17652,8 +17652,8 @@
       <c r="U215" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>36</v>
+      <c r="V215" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="216">
@@ -17720,8 +17720,8 @@
       <c r="U216" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>36</v>
+      <c r="V216" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="217">
@@ -17788,8 +17788,8 @@
       <c r="U217" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>36</v>
+      <c r="V217" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="218">
@@ -17856,8 +17856,8 @@
       <c r="U218" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>36</v>
+      <c r="V218" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="219">
@@ -17924,8 +17924,8 @@
       <c r="U219" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>36</v>
+      <c r="V219" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="220">
@@ -17992,8 +17992,8 @@
       <c r="U220" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>36</v>
+      <c r="V220" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="221">
@@ -18060,8 +18060,8 @@
       <c r="U221" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>36</v>
+      <c r="V221" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="222">
@@ -18128,8 +18128,8 @@
       <c r="U222" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>36</v>
+      <c r="V222" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="223">
@@ -18196,8 +18196,8 @@
       <c r="U223" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>36</v>
+      <c r="V223" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="224">
@@ -18264,8 +18264,8 @@
       <c r="U224" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>36</v>
+      <c r="V224" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="225">
@@ -18332,8 +18332,8 @@
       <c r="U225" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>36</v>
+      <c r="V225" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="226">
@@ -18536,8 +18536,8 @@
       <c r="U228" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>36</v>
+      <c r="V228" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="229">
@@ -18604,8 +18604,8 @@
       <c r="U229" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>36</v>
+      <c r="V229" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="230">
@@ -18672,8 +18672,8 @@
       <c r="U230" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>36</v>
+      <c r="V230" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="231">
@@ -18740,8 +18740,8 @@
       <c r="U231" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>36</v>
+      <c r="V231" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="232">
@@ -18808,8 +18808,8 @@
       <c r="U232" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>36</v>
+      <c r="V232" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="233">
@@ -18876,8 +18876,8 @@
       <c r="U233" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>36</v>
+      <c r="V233" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="234">
@@ -18944,8 +18944,8 @@
       <c r="U234" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>36</v>
+      <c r="V234" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="235">
@@ -19012,8 +19012,8 @@
       <c r="U235" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>36</v>
+      <c r="V235" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="236">
@@ -19080,8 +19080,8 @@
       <c r="U236" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>36</v>
+      <c r="V236" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="237">
@@ -19148,8 +19148,8 @@
       <c r="U237" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V237" s="1" t="s">
-        <v>36</v>
+      <c r="V237" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="238">
@@ -19216,8 +19216,8 @@
       <c r="U238" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V238" s="1" t="s">
-        <v>36</v>
+      <c r="V238" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="239">
@@ -19284,8 +19284,8 @@
       <c r="U239" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V239" s="1" t="s">
-        <v>36</v>
+      <c r="V239" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="240">
@@ -19352,8 +19352,8 @@
       <c r="U240" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V240" s="1" t="s">
-        <v>36</v>
+      <c r="V240" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="241">
@@ -19420,8 +19420,8 @@
       <c r="U241" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>36</v>
+      <c r="V241" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="242">
@@ -19488,8 +19488,8 @@
       <c r="U242" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>36</v>
+      <c r="V242" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="243">
@@ -19556,8 +19556,8 @@
       <c r="U243" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V243" s="1" t="s">
-        <v>36</v>
+      <c r="V243" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="244">
@@ -19624,8 +19624,8 @@
       <c r="U244" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>36</v>
+      <c r="V244" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="245">
@@ -19692,8 +19692,8 @@
       <c r="U245" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>36</v>
+      <c r="V245" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="246">
@@ -19760,8 +19760,8 @@
       <c r="U246" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>36</v>
+      <c r="V246" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="247">
@@ -19964,8 +19964,8 @@
       <c r="U249" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>36</v>
+      <c r="V249" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="250">
@@ -20032,8 +20032,8 @@
       <c r="U250" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>36</v>
+      <c r="V250" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="251">
@@ -20100,8 +20100,8 @@
       <c r="U251" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V251" s="1" t="s">
-        <v>36</v>
+      <c r="V251" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="252">
@@ -20168,8 +20168,8 @@
       <c r="U252" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V252" s="1" t="s">
-        <v>36</v>
+      <c r="V252" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="253">
@@ -20183,7 +20183,7 @@
         <v>22</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>67</v>
@@ -20236,8 +20236,8 @@
       <c r="U253" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V253" s="1" t="s">
-        <v>36</v>
+      <c r="V253" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="254">
@@ -20251,7 +20251,7 @@
         <v>22</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>70</v>
@@ -20304,8 +20304,8 @@
       <c r="U254" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>36</v>
+      <c r="V254" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="255">
@@ -20372,8 +20372,8 @@
       <c r="U255" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V255" s="1" t="s">
-        <v>36</v>
+      <c r="V255" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="256">
@@ -20387,7 +20387,7 @@
         <v>22</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>74</v>
@@ -20440,8 +20440,8 @@
       <c r="U256" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V256" s="1" t="s">
-        <v>36</v>
+      <c r="V256" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="257">
@@ -20455,7 +20455,7 @@
         <v>22</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>75</v>
@@ -20508,8 +20508,8 @@
       <c r="U257" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>36</v>
+      <c r="V257" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="258">
@@ -20523,7 +20523,7 @@
         <v>22</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>77</v>
@@ -20576,8 +20576,8 @@
       <c r="U258" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>36</v>
+      <c r="V258" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="259">
@@ -20591,7 +20591,7 @@
         <v>22</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>78</v>
@@ -20644,8 +20644,8 @@
       <c r="U259" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V259" s="1" t="s">
-        <v>36</v>
+      <c r="V259" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="260">
@@ -20659,7 +20659,7 @@
         <v>22</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>80</v>
@@ -20712,8 +20712,8 @@
       <c r="U260" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V260" s="1" t="s">
-        <v>36</v>
+      <c r="V260" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="261">
@@ -20727,7 +20727,7 @@
         <v>22</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>82</v>
@@ -20780,8 +20780,8 @@
       <c r="U261" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V261" s="1" t="s">
-        <v>36</v>
+      <c r="V261" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="262">
@@ -20795,7 +20795,7 @@
         <v>22</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>84</v>
@@ -20848,8 +20848,8 @@
       <c r="U262" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V262" s="1" t="s">
-        <v>36</v>
+      <c r="V262" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="263">
@@ -20863,7 +20863,7 @@
         <v>22</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>86</v>
@@ -20916,8 +20916,8 @@
       <c r="U263" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>36</v>
+      <c r="V263" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="264">
@@ -20931,7 +20931,7 @@
         <v>22</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>88</v>
@@ -20984,8 +20984,8 @@
       <c r="U264" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>36</v>
+      <c r="V264" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="265">
@@ -20999,7 +20999,7 @@
         <v>22</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>90</v>
@@ -21052,8 +21052,8 @@
       <c r="U265" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V265" s="1" t="s">
-        <v>36</v>
+      <c r="V265" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="266">
@@ -21067,7 +21067,7 @@
         <v>22</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>92</v>
@@ -21120,8 +21120,8 @@
       <c r="U266" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V266" s="1" t="s">
-        <v>36</v>
+      <c r="V266" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="267">
@@ -21188,8 +21188,8 @@
       <c r="U267" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>36</v>
+      <c r="V267" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="268">
@@ -21203,7 +21203,7 @@
         <v>22</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>96</v>
@@ -21256,8 +21256,8 @@
       <c r="U268" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V268" s="1" t="s">
-        <v>36</v>
+      <c r="V268" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="269">
@@ -21271,7 +21271,7 @@
         <v>22</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>98</v>
@@ -21339,7 +21339,7 @@
         <v>22</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>100</v>
@@ -21407,7 +21407,7 @@
         <v>22</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>24</v>
@@ -21416,13 +21416,13 @@
         <v>227</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>29</v>
@@ -21460,8 +21460,8 @@
       <c r="U271" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>36</v>
+      <c r="V271" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="272">
@@ -21475,7 +21475,7 @@
         <v>22</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>24</v>
@@ -21484,13 +21484,13 @@
         <v>254</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>29</v>
@@ -21528,8 +21528,8 @@
       <c r="U272" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>36</v>
+      <c r="V272" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="273">
@@ -21543,7 +21543,7 @@
         <v>22</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>38</v>
@@ -21552,13 +21552,13 @@
         <v>254</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>29</v>
@@ -21596,8 +21596,8 @@
       <c r="U273" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>36</v>
+      <c r="V273" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="274">
@@ -21620,13 +21620,13 @@
         <v>254</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>29</v>
@@ -21664,8 +21664,8 @@
       <c r="U274" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>36</v>
+      <c r="V274" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="275">
@@ -21679,7 +21679,7 @@
         <v>22</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>48</v>
@@ -21688,13 +21688,13 @@
         <v>254</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>29</v>
@@ -21732,8 +21732,8 @@
       <c r="U275" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>36</v>
+      <c r="V275" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="276">
@@ -21747,7 +21747,7 @@
         <v>22</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>555</v>
+        <v>497</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>53</v>
@@ -21756,13 +21756,13 @@
         <v>254</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>29</v>
@@ -21800,8 +21800,8 @@
       <c r="U276" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V276" s="1" t="s">
-        <v>36</v>
+      <c r="V276" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="277">
@@ -21824,13 +21824,13 @@
         <v>254</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>29</v>
@@ -21868,8 +21868,8 @@
       <c r="U277" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V277" s="1" t="s">
-        <v>36</v>
+      <c r="V277" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="278">
@@ -21892,13 +21892,13 @@
         <v>254</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J278" s="2" t="s">
         <v>29</v>
@@ -21936,8 +21936,8 @@
       <c r="U278" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>36</v>
+      <c r="V278" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="279">
@@ -21960,13 +21960,13 @@
         <v>254</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J279" s="2" t="s">
         <v>29</v>
@@ -22004,8 +22004,8 @@
       <c r="U279" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V279" s="1" t="s">
-        <v>36</v>
+      <c r="V279" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="280">
@@ -22028,13 +22028,13 @@
         <v>254</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J280" s="2" t="s">
         <v>29</v>
@@ -22072,8 +22072,8 @@
       <c r="U280" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V280" s="1" t="s">
-        <v>36</v>
+      <c r="V280" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="281">
@@ -22096,13 +22096,13 @@
         <v>254</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J281" s="2" t="s">
         <v>29</v>
@@ -22140,8 +22140,8 @@
       <c r="U281" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V281" s="1" t="s">
-        <v>36</v>
+      <c r="V281" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="282">
@@ -22164,13 +22164,13 @@
         <v>254</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J282" s="2" t="s">
         <v>29</v>
@@ -22208,8 +22208,8 @@
       <c r="U282" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>36</v>
+      <c r="V282" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="283">
@@ -22232,13 +22232,13 @@
         <v>254</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J283" s="2" t="s">
         <v>29</v>
@@ -22276,8 +22276,8 @@
       <c r="U283" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>36</v>
+      <c r="V283" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="284">
@@ -22300,13 +22300,13 @@
         <v>254</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J284" s="2" t="s">
         <v>29</v>
@@ -22344,8 +22344,8 @@
       <c r="U284" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>36</v>
+      <c r="V284" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="285">
@@ -22368,13 +22368,13 @@
         <v>254</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J285" s="2" t="s">
         <v>29</v>
@@ -22412,8 +22412,8 @@
       <c r="U285" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>36</v>
+      <c r="V285" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="286">
@@ -22436,13 +22436,13 @@
         <v>254</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>29</v>
@@ -22480,8 +22480,8 @@
       <c r="U286" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V286" s="1" t="s">
-        <v>36</v>
+      <c r="V286" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="287">
@@ -22504,13 +22504,13 @@
         <v>254</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J287" s="2" t="s">
         <v>29</v>
@@ -22548,8 +22548,8 @@
       <c r="U287" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V287" s="1" t="s">
-        <v>36</v>
+      <c r="V287" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="288">
@@ -22572,13 +22572,13 @@
         <v>254</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J288" s="2" t="s">
         <v>29</v>
@@ -22616,8 +22616,8 @@
       <c r="U288" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>36</v>
+      <c r="V288" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="289">
@@ -22640,13 +22640,13 @@
         <v>254</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J289" s="2" t="s">
         <v>29</v>
@@ -22684,8 +22684,8 @@
       <c r="U289" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>36</v>
+      <c r="V289" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="290">
@@ -22708,13 +22708,13 @@
         <v>254</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J290" s="2" t="s">
         <v>29</v>
@@ -22752,8 +22752,8 @@
       <c r="U290" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V290" s="1" t="s">
-        <v>36</v>
+      <c r="V290" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="291">
@@ -22776,13 +22776,13 @@
         <v>254</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J291" s="2" t="s">
         <v>29</v>
@@ -22820,8 +22820,8 @@
       <c r="U291" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V291" s="1" t="s">
-        <v>36</v>
+      <c r="V291" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="292">
@@ -22844,13 +22844,13 @@
         <v>254</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J292" s="2" t="s">
         <v>29</v>
@@ -22888,8 +22888,8 @@
       <c r="U292" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V292" s="1" t="s">
-        <v>36</v>
+      <c r="V292" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="293">
@@ -22912,13 +22912,13 @@
         <v>254</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>29</v>
@@ -22956,8 +22956,8 @@
       <c r="U293" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V293" s="1" t="s">
-        <v>36</v>
+      <c r="V293" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="294">
@@ -22980,13 +22980,13 @@
         <v>254</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J294" s="2" t="s">
         <v>29</v>
@@ -23024,8 +23024,8 @@
       <c r="U294" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V294" s="1" t="s">
-        <v>36</v>
+      <c r="V294" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="295">
@@ -23048,13 +23048,13 @@
         <v>254</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>29</v>
@@ -23092,8 +23092,8 @@
       <c r="U295" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V295" s="1" t="s">
-        <v>36</v>
+      <c r="V295" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="296">
@@ -23116,13 +23116,13 @@
         <v>254</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J296" s="2" t="s">
         <v>29</v>
@@ -23160,8 +23160,8 @@
       <c r="U296" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V296" s="1" t="s">
-        <v>36</v>
+      <c r="V296" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="297">
@@ -23184,13 +23184,13 @@
         <v>254</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>29</v>
@@ -23228,8 +23228,8 @@
       <c r="U297" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V297" s="1" t="s">
-        <v>36</v>
+      <c r="V297" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="298">
@@ -23252,13 +23252,13 @@
         <v>254</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J298" s="2" t="s">
         <v>29</v>
@@ -23320,13 +23320,13 @@
         <v>254</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J299" s="2" t="s">
         <v>29</v>
@@ -23432,8 +23432,8 @@
       <c r="U300" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V300" s="1" t="s">
-        <v>36</v>
+      <c r="V300" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="301">
@@ -23500,8 +23500,8 @@
       <c r="U301" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V301" s="1" t="s">
-        <v>36</v>
+      <c r="V301" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="302">
@@ -23568,8 +23568,8 @@
       <c r="U302" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V302" s="1" t="s">
-        <v>36</v>
+      <c r="V302" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="303">
@@ -23636,8 +23636,8 @@
       <c r="U303" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V303" s="1" t="s">
-        <v>36</v>
+      <c r="V303" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="304">
@@ -23704,8 +23704,8 @@
       <c r="U304" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V304" s="1" t="s">
-        <v>36</v>
+      <c r="V304" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="305">
@@ -23772,8 +23772,8 @@
       <c r="U305" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V305" s="1" t="s">
-        <v>36</v>
+      <c r="V305" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="306">
@@ -23840,8 +23840,8 @@
       <c r="U306" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V306" s="1" t="s">
-        <v>36</v>
+      <c r="V306" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="307">
@@ -23908,8 +23908,8 @@
       <c r="U307" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V307" s="1" t="s">
-        <v>36</v>
+      <c r="V307" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="308">
@@ -23976,8 +23976,8 @@
       <c r="U308" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V308" s="1" t="s">
-        <v>36</v>
+      <c r="V308" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="309">
@@ -24044,8 +24044,8 @@
       <c r="U309" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V309" s="1" t="s">
-        <v>36</v>
+      <c r="V309" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="310">
@@ -24112,8 +24112,8 @@
       <c r="U310" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V310" s="1" t="s">
-        <v>36</v>
+      <c r="V310" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="311">
@@ -24180,8 +24180,8 @@
       <c r="U311" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V311" s="1" t="s">
-        <v>36</v>
+      <c r="V311" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="312">
@@ -24248,8 +24248,8 @@
       <c r="U312" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V312" s="1" t="s">
-        <v>36</v>
+      <c r="V312" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="313">
@@ -24316,8 +24316,8 @@
       <c r="U313" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V313" s="1" t="s">
-        <v>36</v>
+      <c r="V313" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="314">
@@ -24384,8 +24384,8 @@
       <c r="U314" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V314" s="1" t="s">
-        <v>36</v>
+      <c r="V314" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="315">
@@ -24452,8 +24452,8 @@
       <c r="U315" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V315" s="1" t="s">
-        <v>36</v>
+      <c r="V315" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="316">
@@ -24520,8 +24520,8 @@
       <c r="U316" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V316" s="1" t="s">
-        <v>36</v>
+      <c r="V316" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="317">
@@ -24588,8 +24588,8 @@
       <c r="U317" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V317" s="1" t="s">
-        <v>36</v>
+      <c r="V317" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="318">
@@ -24656,8 +24656,8 @@
       <c r="U318" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V318" s="1" t="s">
-        <v>36</v>
+      <c r="V318" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="319">
@@ -24724,8 +24724,8 @@
       <c r="U319" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V319" s="1" t="s">
-        <v>36</v>
+      <c r="V319" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="320">
@@ -24792,8 +24792,8 @@
       <c r="U320" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V320" s="1" t="s">
-        <v>36</v>
+      <c r="V320" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="321">
@@ -24860,8 +24860,8 @@
       <c r="U321" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V321" s="1" t="s">
-        <v>36</v>
+      <c r="V321" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="322">
@@ -24928,8 +24928,8 @@
       <c r="U322" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V322" s="1" t="s">
-        <v>36</v>
+      <c r="V322" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="323">
@@ -24996,8 +24996,8 @@
       <c r="U323" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V323" s="1" t="s">
-        <v>36</v>
+      <c r="V323" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="324">
@@ -25064,8 +25064,8 @@
       <c r="U324" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V324" s="1" t="s">
-        <v>36</v>
+      <c r="V324" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="325">
@@ -25132,8 +25132,8 @@
       <c r="U325" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V325" s="1" t="s">
-        <v>36</v>
+      <c r="V325" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="326">
@@ -25200,8 +25200,8 @@
       <c r="U326" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V326" s="1" t="s">
-        <v>36</v>
+      <c r="V326" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="327">
@@ -25268,8 +25268,8 @@
       <c r="U327" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V327" s="1" t="s">
-        <v>36</v>
+      <c r="V327" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="328">
@@ -25336,8 +25336,8 @@
       <c r="U328" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V328" s="1" t="s">
-        <v>36</v>
+      <c r="V328" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="329">
@@ -25404,8 +25404,8 @@
       <c r="U329" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V329" s="1" t="s">
-        <v>36</v>
+      <c r="V329" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="330">
@@ -25472,8 +25472,8 @@
       <c r="U330" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V330" s="1" t="s">
-        <v>36</v>
+      <c r="V330" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="331">
@@ -25540,8 +25540,8 @@
       <c r="U331" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V331" s="1" t="s">
-        <v>36</v>
+      <c r="V331" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="332">
@@ -25608,8 +25608,8 @@
       <c r="U332" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V332" s="1" t="s">
-        <v>36</v>
+      <c r="V332" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="333">
@@ -25676,8 +25676,8 @@
       <c r="U333" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V333" s="1" t="s">
-        <v>36</v>
+      <c r="V333" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="334">
@@ -25744,8 +25744,8 @@
       <c r="U334" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V334" s="1" t="s">
-        <v>36</v>
+      <c r="V334" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="335">
@@ -25789,7 +25789,7 @@
         <v>32</v>
       </c>
       <c r="N335" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O335" s="2" t="s">
         <v>25</v>
@@ -25812,8 +25812,8 @@
       <c r="U335" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V335" s="1" t="s">
-        <v>36</v>
+      <c r="V335" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="336">
@@ -25880,8 +25880,8 @@
       <c r="U336" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V336" s="1" t="s">
-        <v>36</v>
+      <c r="V336" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="337">
@@ -25948,8 +25948,8 @@
       <c r="U337" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V337" s="1" t="s">
-        <v>36</v>
+      <c r="V337" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="338">
@@ -26016,8 +26016,8 @@
       <c r="U338" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V338" s="1" t="s">
-        <v>36</v>
+      <c r="V338" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="339">
@@ -26084,8 +26084,8 @@
       <c r="U339" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V339" s="1" t="s">
-        <v>36</v>
+      <c r="V339" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="340">
@@ -26152,8 +26152,8 @@
       <c r="U340" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V340" s="1" t="s">
-        <v>36</v>
+      <c r="V340" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="341">
@@ -26197,7 +26197,7 @@
         <v>32</v>
       </c>
       <c r="N341" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O341" s="2" t="s">
         <v>69</v>
@@ -26220,8 +26220,8 @@
       <c r="U341" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V341" s="1" t="s">
-        <v>36</v>
+      <c r="V341" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="342">
@@ -26288,8 +26288,8 @@
       <c r="U342" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V342" s="1" t="s">
-        <v>36</v>
+      <c r="V342" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="343">
@@ -26356,8 +26356,8 @@
       <c r="U343" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V343" s="1" t="s">
-        <v>36</v>
+      <c r="V343" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="344">
@@ -26424,8 +26424,8 @@
       <c r="U344" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V344" s="1" t="s">
-        <v>36</v>
+      <c r="V344" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="345">
@@ -26492,8 +26492,8 @@
       <c r="U345" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V345" s="1" t="s">
-        <v>36</v>
+      <c r="V345" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="346">
@@ -26560,8 +26560,8 @@
       <c r="U346" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V346" s="1" t="s">
-        <v>36</v>
+      <c r="V346" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="347">
@@ -26628,8 +26628,8 @@
       <c r="U347" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V347" s="1" t="s">
-        <v>36</v>
+      <c r="V347" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="348">
@@ -26696,8 +26696,8 @@
       <c r="U348" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V348" s="1" t="s">
-        <v>36</v>
+      <c r="V348" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="349">
@@ -26764,8 +26764,8 @@
       <c r="U349" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V349" s="1" t="s">
-        <v>36</v>
+      <c r="V349" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="350">
@@ -26832,8 +26832,8 @@
       <c r="U350" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V350" s="1" t="s">
-        <v>36</v>
+      <c r="V350" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="351">
@@ -26900,8 +26900,8 @@
       <c r="U351" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V351" s="1" t="s">
-        <v>36</v>
+      <c r="V351" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="352">
@@ -27013,7 +27013,7 @@
         <v>32</v>
       </c>
       <c r="N353" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O353" s="2" t="s">
         <v>34</v>
@@ -27104,8 +27104,8 @@
       <c r="U354" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V354" s="1" t="s">
-        <v>36</v>
+      <c r="V354" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="355">
@@ -27172,8 +27172,8 @@
       <c r="U355" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V355" s="1" t="s">
-        <v>36</v>
+      <c r="V355" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="356">
@@ -27240,8 +27240,8 @@
       <c r="U356" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V356" s="1" t="s">
-        <v>36</v>
+      <c r="V356" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="357">
@@ -27308,8 +27308,8 @@
       <c r="U357" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V357" s="1" t="s">
-        <v>36</v>
+      <c r="V357" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="358">
@@ -27376,8 +27376,8 @@
       <c r="U358" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V358" s="1" t="s">
-        <v>36</v>
+      <c r="V358" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="359">
@@ -27444,8 +27444,8 @@
       <c r="U359" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V359" s="1" t="s">
-        <v>36</v>
+      <c r="V359" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="360">
@@ -27512,8 +27512,8 @@
       <c r="U360" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V360" s="1" t="s">
-        <v>36</v>
+      <c r="V360" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="361">
@@ -27580,8 +27580,8 @@
       <c r="U361" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V361" s="1" t="s">
-        <v>36</v>
+      <c r="V361" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="362">
@@ -27648,8 +27648,8 @@
       <c r="U362" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V362" s="1" t="s">
-        <v>36</v>
+      <c r="V362" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="363">
@@ -27716,8 +27716,8 @@
       <c r="U363" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V363" s="1" t="s">
-        <v>36</v>
+      <c r="V363" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="364">
@@ -27784,8 +27784,8 @@
       <c r="U364" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V364" s="1" t="s">
-        <v>36</v>
+      <c r="V364" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="365">
@@ -27852,8 +27852,8 @@
       <c r="U365" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V365" s="1" t="s">
-        <v>36</v>
+      <c r="V365" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="366">
@@ -27920,8 +27920,8 @@
       <c r="U366" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V366" s="1" t="s">
-        <v>36</v>
+      <c r="V366" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="367">
@@ -27988,8 +27988,8 @@
       <c r="U367" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V367" s="1" t="s">
-        <v>36</v>
+      <c r="V367" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="368">
@@ -28056,8 +28056,8 @@
       <c r="U368" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V368" s="1" t="s">
-        <v>36</v>
+      <c r="V368" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="369">
@@ -28124,8 +28124,8 @@
       <c r="U369" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V369" s="1" t="s">
-        <v>36</v>
+      <c r="V369" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="370">
@@ -28192,8 +28192,8 @@
       <c r="U370" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V370" s="1" t="s">
-        <v>36</v>
+      <c r="V370" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="371">
@@ -28260,8 +28260,8 @@
       <c r="U371" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V371" s="1" t="s">
-        <v>36</v>
+      <c r="V371" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="372">
@@ -28328,8 +28328,8 @@
       <c r="U372" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V372" s="1" t="s">
-        <v>36</v>
+      <c r="V372" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="373">
@@ -28444,7 +28444,7 @@
         <v>46</v>
       </c>
       <c r="O374" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P374" s="2" t="s">
         <v>34</v>
@@ -28532,8 +28532,8 @@
       <c r="U375" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V375" s="1" t="s">
-        <v>36</v>
+      <c r="V375" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="376">
@@ -28600,8 +28600,8 @@
       <c r="U376" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V376" s="1" t="s">
-        <v>36</v>
+      <c r="V376" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="377">
@@ -28668,8 +28668,8 @@
       <c r="U377" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V377" s="1" t="s">
-        <v>36</v>
+      <c r="V377" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="378">
@@ -28736,8 +28736,8 @@
       <c r="U378" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V378" s="1" t="s">
-        <v>36</v>
+      <c r="V378" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="379">
@@ -28804,8 +28804,8 @@
       <c r="U379" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V379" s="1" t="s">
-        <v>36</v>
+      <c r="V379" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="380">
@@ -28872,8 +28872,8 @@
       <c r="U380" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V380" s="1" t="s">
-        <v>36</v>
+      <c r="V380" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="381">
@@ -28940,8 +28940,8 @@
       <c r="U381" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V381" s="1" t="s">
-        <v>36</v>
+      <c r="V381" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="382">
@@ -29008,8 +29008,8 @@
       <c r="U382" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V382" s="1" t="s">
-        <v>36</v>
+      <c r="V382" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="383">
@@ -29076,8 +29076,8 @@
       <c r="U383" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V383" s="1" t="s">
-        <v>36</v>
+      <c r="V383" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="384">
@@ -29144,8 +29144,8 @@
       <c r="U384" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V384" s="1" t="s">
-        <v>36</v>
+      <c r="V384" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="385">
@@ -29212,8 +29212,8 @@
       <c r="U385" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V385" s="1" t="s">
-        <v>36</v>
+      <c r="V385" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="386">
@@ -29280,8 +29280,8 @@
       <c r="U386" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V386" s="1" t="s">
-        <v>36</v>
+      <c r="V386" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="387">
@@ -29348,8 +29348,8 @@
       <c r="U387" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V387" s="1" t="s">
-        <v>36</v>
+      <c r="V387" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="388">
@@ -29416,8 +29416,8 @@
       <c r="U388" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V388" s="1" t="s">
-        <v>36</v>
+      <c r="V388" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="389">
@@ -29484,8 +29484,8 @@
       <c r="U389" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V389" s="1" t="s">
-        <v>36</v>
+      <c r="V389" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="390">
@@ -29552,8 +29552,8 @@
       <c r="U390" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V390" s="1" t="s">
-        <v>36</v>
+      <c r="V390" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="391">
@@ -29620,8 +29620,8 @@
       <c r="U391" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V391" s="1" t="s">
-        <v>36</v>
+      <c r="V391" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="392">
@@ -29688,8 +29688,8 @@
       <c r="U392" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V392" s="1" t="s">
-        <v>36</v>
+      <c r="V392" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="393">
@@ -29756,8 +29756,8 @@
       <c r="U393" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V393" s="1" t="s">
-        <v>36</v>
+      <c r="V393" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="394">
@@ -29824,8 +29824,8 @@
       <c r="U394" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V394" s="1" t="s">
-        <v>36</v>
+      <c r="V394" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="395">
@@ -29892,8 +29892,8 @@
       <c r="U395" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V395" s="1" t="s">
-        <v>36</v>
+      <c r="V395" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="396">
@@ -29960,8 +29960,8 @@
       <c r="U396" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V396" s="1" t="s">
-        <v>36</v>
+      <c r="V396" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="397">
@@ -30028,8 +30028,8 @@
       <c r="U397" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V397" s="1" t="s">
-        <v>36</v>
+      <c r="V397" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="398">
@@ -30096,8 +30096,8 @@
       <c r="U398" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V398" s="1" t="s">
-        <v>36</v>
+      <c r="V398" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="399">
@@ -30164,8 +30164,8 @@
       <c r="U399" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V399" s="1" t="s">
-        <v>36</v>
+      <c r="V399" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="400">
@@ -30232,8 +30232,8 @@
       <c r="U400" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V400" s="1" t="s">
-        <v>36</v>
+      <c r="V400" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="401">
@@ -30300,8 +30300,8 @@
       <c r="U401" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V401" s="1" t="s">
-        <v>36</v>
+      <c r="V401" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="402">
@@ -30368,8 +30368,8 @@
       <c r="U402" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V402" s="1" t="s">
-        <v>36</v>
+      <c r="V402" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="403">
@@ -30436,8 +30436,8 @@
       <c r="U403" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V403" s="1" t="s">
-        <v>36</v>
+      <c r="V403" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="404">
@@ -30504,8 +30504,8 @@
       <c r="U404" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V404" s="1" t="s">
-        <v>36</v>
+      <c r="V404" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="405">
@@ -30572,8 +30572,8 @@
       <c r="U405" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V405" s="1" t="s">
-        <v>36</v>
+      <c r="V405" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="406">
@@ -30640,8 +30640,8 @@
       <c r="U406" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V406" s="1" t="s">
-        <v>36</v>
+      <c r="V406" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="407">
@@ -30708,8 +30708,8 @@
       <c r="U407" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V407" s="1" t="s">
-        <v>36</v>
+      <c r="V407" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="408">
@@ -30776,8 +30776,8 @@
       <c r="U408" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V408" s="1" t="s">
-        <v>36</v>
+      <c r="V408" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="409">
@@ -30844,8 +30844,8 @@
       <c r="U409" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V409" s="1" t="s">
-        <v>36</v>
+      <c r="V409" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="410">
@@ -30912,8 +30912,8 @@
       <c r="U410" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V410" s="1" t="s">
-        <v>36</v>
+      <c r="V410" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="411">
@@ -30980,8 +30980,8 @@
       <c r="U411" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V411" s="1" t="s">
-        <v>36</v>
+      <c r="V411" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="412">
@@ -31048,8 +31048,8 @@
       <c r="U412" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V412" s="1" t="s">
-        <v>36</v>
+      <c r="V412" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="413">
@@ -31116,8 +31116,8 @@
       <c r="U413" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V413" s="1" t="s">
-        <v>36</v>
+      <c r="V413" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="414">
@@ -31184,8 +31184,8 @@
       <c r="U414" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V414" s="1" t="s">
-        <v>36</v>
+      <c r="V414" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="415">
@@ -31252,8 +31252,8 @@
       <c r="U415" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V415" s="1" t="s">
-        <v>36</v>
+      <c r="V415" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="416">
@@ -31320,8 +31320,8 @@
       <c r="U416" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V416" s="1" t="s">
-        <v>36</v>
+      <c r="V416" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="417">
@@ -31388,8 +31388,8 @@
       <c r="U417" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V417" s="1" t="s">
-        <v>36</v>
+      <c r="V417" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="418">
@@ -31456,8 +31456,8 @@
       <c r="U418" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V418" s="1" t="s">
-        <v>36</v>
+      <c r="V418" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="419">
@@ -31524,8 +31524,8 @@
       <c r="U419" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V419" s="1" t="s">
-        <v>36</v>
+      <c r="V419" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="420">
@@ -31640,7 +31640,7 @@
         <v>761</v>
       </c>
       <c r="O421" s="2" t="s">
-        <v>762</v>
+        <v>93</v>
       </c>
       <c r="P421" s="2" t="s">
         <v>34</v>
@@ -31675,7 +31675,7 @@
         <v>22</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>84</v>
@@ -31684,13 +31684,13 @@
         <v>107</v>
       </c>
       <c r="G422" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H422" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H422" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="I422" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J422" s="2" t="s">
         <v>29</v>
@@ -31728,8 +31728,8 @@
       <c r="U422" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V422" s="1" t="s">
-        <v>36</v>
+      <c r="V422" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="423">
@@ -31743,7 +31743,7 @@
         <v>22</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>86</v>
@@ -31752,13 +31752,13 @@
         <v>107</v>
       </c>
       <c r="G423" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H423" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H423" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="I423" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J423" s="2" t="s">
         <v>29</v>
@@ -31773,7 +31773,7 @@
         <v>32</v>
       </c>
       <c r="N423" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O423" s="2" t="s">
         <v>46</v>
@@ -31796,8 +31796,8 @@
       <c r="U423" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V423" s="1" t="s">
-        <v>36</v>
+      <c r="V423" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="424">
@@ -31811,7 +31811,7 @@
         <v>22</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>88</v>
@@ -31820,13 +31820,13 @@
         <v>107</v>
       </c>
       <c r="G424" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H424" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H424" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="I424" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J424" s="2" t="s">
         <v>29</v>
@@ -31841,13 +31841,13 @@
         <v>32</v>
       </c>
       <c r="N424" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O424" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P424" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q424" s="2" t="s">
         <v>34</v>
@@ -31864,8 +31864,8 @@
       <c r="U424" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V424" s="1" t="s">
-        <v>36</v>
+      <c r="V424" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="425">
@@ -31879,7 +31879,7 @@
         <v>22</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>90</v>
@@ -31888,13 +31888,13 @@
         <v>107</v>
       </c>
       <c r="G425" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H425" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H425" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="I425" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J425" s="2" t="s">
         <v>29</v>
@@ -31909,13 +31909,13 @@
         <v>32</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O425" s="2" t="s">
         <v>46</v>
       </c>
       <c r="P425" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q425" s="2" t="s">
         <v>34</v>
@@ -31932,8 +31932,8 @@
       <c r="U425" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V425" s="1" t="s">
-        <v>36</v>
+      <c r="V425" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="426">
@@ -31947,7 +31947,7 @@
         <v>22</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>92</v>
@@ -31956,13 +31956,13 @@
         <v>107</v>
       </c>
       <c r="G426" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H426" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H426" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="I426" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>29</v>
@@ -31977,14 +31977,14 @@
         <v>32</v>
       </c>
       <c r="N426" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="O426" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P426" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="O426" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P426" s="2" t="s">
-        <v>776</v>
-      </c>
       <c r="Q426" s="2" t="s">
         <v>34</v>
       </c>
@@ -32000,8 +32000,8 @@
       <c r="U426" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V426" s="1" t="s">
-        <v>36</v>
+      <c r="V426" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="427">
@@ -32015,7 +32015,7 @@
         <v>22</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>94</v>
@@ -32024,13 +32024,13 @@
         <v>107</v>
       </c>
       <c r="G427" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H427" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H427" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="I427" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J427" s="2" t="s">
         <v>29</v>
@@ -32045,7 +32045,7 @@
         <v>32</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O427" s="2" t="s">
         <v>46</v>
@@ -32068,8 +32068,8 @@
       <c r="U427" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V427" s="1" t="s">
-        <v>36</v>
+      <c r="V427" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="428">
@@ -32083,7 +32083,7 @@
         <v>22</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>96</v>
@@ -32092,13 +32092,13 @@
         <v>107</v>
       </c>
       <c r="G428" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H428" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H428" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="I428" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J428" s="2" t="s">
         <v>29</v>
@@ -32113,14 +32113,14 @@
         <v>32</v>
       </c>
       <c r="N428" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="O428" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="O428" s="2" t="s">
+      <c r="P428" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="P428" s="2" t="s">
-        <v>782</v>
-      </c>
       <c r="Q428" s="2" t="s">
         <v>34</v>
       </c>
@@ -32136,8 +32136,8 @@
       <c r="U428" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V428" s="1" t="s">
-        <v>36</v>
+      <c r="V428" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="429">
@@ -32151,7 +32151,7 @@
         <v>22</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>98</v>
@@ -32160,13 +32160,13 @@
         <v>107</v>
       </c>
       <c r="G429" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H429" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H429" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="I429" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J429" s="2" t="s">
         <v>29</v>
@@ -32181,13 +32181,13 @@
         <v>32</v>
       </c>
       <c r="N429" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="O429" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P429" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="O429" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P429" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="Q429" s="2" t="s">
         <v>34</v>
@@ -32219,7 +32219,7 @@
         <v>22</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>100</v>
@@ -32228,13 +32228,13 @@
         <v>107</v>
       </c>
       <c r="G430" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="H430" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H430" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="I430" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J430" s="2" t="s">
         <v>29</v>
@@ -32249,13 +32249,13 @@
         <v>32</v>
       </c>
       <c r="N430" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="O430" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P430" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="O430" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P430" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="Q430" s="2" t="s">
         <v>34</v>
@@ -32287,7 +32287,7 @@
         <v>22</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>82</v>
@@ -32296,13 +32296,13 @@
         <v>390</v>
       </c>
       <c r="G431" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H431" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="H431" s="1" t="s">
-        <v>791</v>
-      </c>
       <c r="I431" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J431" s="2" t="s">
         <v>29</v>
@@ -32340,8 +32340,8 @@
       <c r="U431" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V431" s="1" t="s">
-        <v>36</v>
+      <c r="V431" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="432">
@@ -32355,7 +32355,7 @@
         <v>22</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>84</v>
@@ -32364,13 +32364,13 @@
         <v>390</v>
       </c>
       <c r="G432" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H432" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="H432" s="1" t="s">
-        <v>791</v>
-      </c>
       <c r="I432" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J432" s="2" t="s">
         <v>29</v>
@@ -32408,8 +32408,8 @@
       <c r="U432" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V432" s="1" t="s">
-        <v>36</v>
+      <c r="V432" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="433">
@@ -32423,7 +32423,7 @@
         <v>22</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>77</v>
@@ -32432,13 +32432,13 @@
         <v>391</v>
       </c>
       <c r="G433" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H433" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="H433" s="1" t="s">
+      <c r="I433" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="I433" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="J433" s="2" t="s">
         <v>29</v>
@@ -32476,8 +32476,8 @@
       <c r="U433" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V433" s="1" t="s">
-        <v>36</v>
+      <c r="V433" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="434">
@@ -32491,7 +32491,7 @@
         <v>22</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>78</v>
@@ -32500,13 +32500,13 @@
         <v>391</v>
       </c>
       <c r="G434" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H434" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="H434" s="1" t="s">
+      <c r="I434" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="I434" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="J434" s="2" t="s">
         <v>29</v>
@@ -32544,8 +32544,8 @@
       <c r="U434" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V434" s="1" t="s">
-        <v>36</v>
+      <c r="V434" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="435">
@@ -32559,7 +32559,7 @@
         <v>22</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>80</v>
@@ -32568,13 +32568,13 @@
         <v>391</v>
       </c>
       <c r="G435" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H435" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="H435" s="1" t="s">
+      <c r="I435" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="I435" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="J435" s="2" t="s">
         <v>29</v>
@@ -32612,8 +32612,8 @@
       <c r="U435" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V435" s="1" t="s">
-        <v>36</v>
+      <c r="V435" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="436">
@@ -32627,7 +32627,7 @@
         <v>22</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>65</v>
@@ -32636,13 +32636,13 @@
         <v>406</v>
       </c>
       <c r="G436" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H436" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H436" s="1" t="s">
+      <c r="I436" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I436" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J436" s="2" t="s">
         <v>29</v>
@@ -32680,8 +32680,8 @@
       <c r="U436" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V436" s="1" t="s">
-        <v>36</v>
+      <c r="V436" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="437">
@@ -32704,13 +32704,13 @@
         <v>406</v>
       </c>
       <c r="G437" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H437" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H437" s="1" t="s">
+      <c r="I437" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I437" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J437" s="2" t="s">
         <v>29</v>
@@ -32748,8 +32748,8 @@
       <c r="U437" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V437" s="1" t="s">
-        <v>36</v>
+      <c r="V437" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="438">
@@ -32763,7 +32763,7 @@
         <v>22</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>70</v>
@@ -32772,13 +32772,13 @@
         <v>406</v>
       </c>
       <c r="G438" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H438" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H438" s="1" t="s">
+      <c r="I438" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I438" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J438" s="2" t="s">
         <v>29</v>
@@ -32816,8 +32816,8 @@
       <c r="U438" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V438" s="1" t="s">
-        <v>36</v>
+      <c r="V438" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="439">
@@ -32831,7 +32831,7 @@
         <v>22</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>77</v>
@@ -32840,13 +32840,13 @@
         <v>406</v>
       </c>
       <c r="G439" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H439" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H439" s="1" t="s">
+      <c r="I439" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I439" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J439" s="2" t="s">
         <v>29</v>
@@ -32884,8 +32884,8 @@
       <c r="U439" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V439" s="1" t="s">
-        <v>36</v>
+      <c r="V439" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="440">
@@ -32899,7 +32899,7 @@
         <v>22</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>78</v>
@@ -32908,13 +32908,13 @@
         <v>406</v>
       </c>
       <c r="G440" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H440" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H440" s="1" t="s">
+      <c r="I440" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I440" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J440" s="2" t="s">
         <v>29</v>
@@ -32952,8 +32952,8 @@
       <c r="U440" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V440" s="1" t="s">
-        <v>36</v>
+      <c r="V440" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="441">
@@ -32976,13 +32976,13 @@
         <v>406</v>
       </c>
       <c r="G441" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H441" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H441" s="1" t="s">
+      <c r="I441" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I441" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J441" s="2" t="s">
         <v>29</v>
@@ -33020,8 +33020,8 @@
       <c r="U441" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V441" s="1" t="s">
-        <v>36</v>
+      <c r="V441" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="442">
@@ -33035,7 +33035,7 @@
         <v>22</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>82</v>
@@ -33044,13 +33044,13 @@
         <v>406</v>
       </c>
       <c r="G442" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H442" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H442" s="1" t="s">
+      <c r="I442" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I442" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J442" s="2" t="s">
         <v>29</v>
@@ -33088,8 +33088,8 @@
       <c r="U442" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V442" s="1" t="s">
-        <v>36</v>
+      <c r="V442" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="443">
@@ -33103,7 +33103,7 @@
         <v>22</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>84</v>
@@ -33112,13 +33112,13 @@
         <v>406</v>
       </c>
       <c r="G443" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H443" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H443" s="1" t="s">
+      <c r="I443" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I443" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J443" s="2" t="s">
         <v>29</v>
@@ -33156,8 +33156,8 @@
       <c r="U443" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V443" s="1" t="s">
-        <v>36</v>
+      <c r="V443" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="444">
@@ -33171,7 +33171,7 @@
         <v>22</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>86</v>
@@ -33180,13 +33180,13 @@
         <v>406</v>
       </c>
       <c r="G444" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H444" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H444" s="1" t="s">
+      <c r="I444" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I444" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J444" s="2" t="s">
         <v>29</v>
@@ -33224,8 +33224,8 @@
       <c r="U444" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V444" s="1" t="s">
-        <v>36</v>
+      <c r="V444" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="445">
@@ -33239,7 +33239,7 @@
         <v>22</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>88</v>
@@ -33248,13 +33248,13 @@
         <v>406</v>
       </c>
       <c r="G445" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H445" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H445" s="1" t="s">
+      <c r="I445" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I445" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J445" s="2" t="s">
         <v>29</v>
@@ -33292,8 +33292,8 @@
       <c r="U445" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V445" s="1" t="s">
-        <v>36</v>
+      <c r="V445" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="446">
@@ -33316,13 +33316,13 @@
         <v>406</v>
       </c>
       <c r="G446" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H446" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H446" s="1" t="s">
+      <c r="I446" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="I446" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="J446" s="2" t="s">
         <v>29</v>
@@ -33360,8 +33360,8 @@
       <c r="U446" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V446" s="1" t="s">
-        <v>36</v>
+      <c r="V446" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="447">
@@ -33375,7 +33375,7 @@
         <v>22</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>88</v>
@@ -33384,13 +33384,13 @@
         <v>417</v>
       </c>
       <c r="G447" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H447" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="H447" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="I447" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>29</v>
@@ -33428,8 +33428,8 @@
       <c r="U447" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V447" s="1" t="s">
-        <v>36</v>
+      <c r="V447" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="448">
@@ -33443,7 +33443,7 @@
         <v>22</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>90</v>
@@ -33452,13 +33452,13 @@
         <v>417</v>
       </c>
       <c r="G448" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H448" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="H448" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="I448" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>29</v>
@@ -33496,8 +33496,8 @@
       <c r="U448" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V448" s="1" t="s">
-        <v>36</v>
+      <c r="V448" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="449">
@@ -33511,7 +33511,7 @@
         <v>22</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>92</v>
@@ -33520,13 +33520,13 @@
         <v>417</v>
       </c>
       <c r="G449" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H449" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="H449" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="I449" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>29</v>
@@ -33564,8 +33564,8 @@
       <c r="U449" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V449" s="1" t="s">
-        <v>36</v>
+      <c r="V449" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="450">
@@ -33579,7 +33579,7 @@
         <v>22</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>94</v>
@@ -33588,13 +33588,13 @@
         <v>417</v>
       </c>
       <c r="G450" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H450" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="H450" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="I450" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J450" s="2" t="s">
         <v>29</v>
@@ -33632,8 +33632,8 @@
       <c r="U450" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V450" s="1" t="s">
-        <v>36</v>
+      <c r="V450" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="451">
@@ -33647,7 +33647,7 @@
         <v>22</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>96</v>
@@ -33656,13 +33656,13 @@
         <v>417</v>
       </c>
       <c r="G451" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H451" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="H451" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="I451" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J451" s="2" t="s">
         <v>29</v>
@@ -33700,8 +33700,8 @@
       <c r="U451" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V451" s="1" t="s">
-        <v>36</v>
+      <c r="V451" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="452">
@@ -33715,7 +33715,7 @@
         <v>22</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>98</v>
@@ -33724,13 +33724,13 @@
         <v>417</v>
       </c>
       <c r="G452" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H452" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="H452" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="I452" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J452" s="2" t="s">
         <v>29</v>
@@ -33783,7 +33783,7 @@
         <v>22</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>100</v>
@@ -33792,13 +33792,13 @@
         <v>417</v>
       </c>
       <c r="G453" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H453" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="H453" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="I453" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J453" s="2" t="s">
         <v>29</v>
@@ -33851,7 +33851,7 @@
         <v>22</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>24</v>
@@ -33860,13 +33860,13 @@
         <v>421</v>
       </c>
       <c r="G454" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H454" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H454" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I454" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J454" s="2" t="s">
         <v>29</v>
@@ -33904,8 +33904,8 @@
       <c r="U454" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V454" s="1" t="s">
-        <v>36</v>
+      <c r="V454" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="455">
@@ -33919,7 +33919,7 @@
         <v>22</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>38</v>
@@ -33928,13 +33928,13 @@
         <v>421</v>
       </c>
       <c r="G455" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H455" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H455" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I455" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J455" s="2" t="s">
         <v>29</v>
@@ -33972,8 +33972,8 @@
       <c r="U455" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V455" s="1" t="s">
-        <v>36</v>
+      <c r="V455" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="456">
@@ -33987,7 +33987,7 @@
         <v>22</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>47</v>
@@ -33996,13 +33996,13 @@
         <v>421</v>
       </c>
       <c r="G456" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H456" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H456" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I456" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J456" s="2" t="s">
         <v>29</v>
@@ -34040,8 +34040,8 @@
       <c r="U456" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V456" s="1" t="s">
-        <v>36</v>
+      <c r="V456" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="457">
@@ -34055,7 +34055,7 @@
         <v>22</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>48</v>
@@ -34064,13 +34064,13 @@
         <v>421</v>
       </c>
       <c r="G457" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H457" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H457" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I457" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J457" s="2" t="s">
         <v>29</v>
@@ -34108,8 +34108,8 @@
       <c r="U457" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V457" s="1" t="s">
-        <v>36</v>
+      <c r="V457" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="458">
@@ -34123,7 +34123,7 @@
         <v>22</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>50</v>
@@ -34132,13 +34132,13 @@
         <v>421</v>
       </c>
       <c r="G458" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H458" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H458" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I458" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J458" s="2" t="s">
         <v>29</v>
@@ -34176,8 +34176,8 @@
       <c r="U458" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V458" s="1" t="s">
-        <v>36</v>
+      <c r="V458" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="459">
@@ -34191,7 +34191,7 @@
         <v>22</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>53</v>
@@ -34200,13 +34200,13 @@
         <v>421</v>
       </c>
       <c r="G459" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H459" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H459" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I459" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J459" s="2" t="s">
         <v>29</v>
@@ -34244,8 +34244,8 @@
       <c r="U459" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V459" s="1" t="s">
-        <v>36</v>
+      <c r="V459" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="460">
@@ -34259,7 +34259,7 @@
         <v>22</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>56</v>
@@ -34268,13 +34268,13 @@
         <v>421</v>
       </c>
       <c r="G460" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H460" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H460" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I460" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J460" s="2" t="s">
         <v>29</v>
@@ -34312,8 +34312,8 @@
       <c r="U460" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V460" s="1" t="s">
-        <v>36</v>
+      <c r="V460" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="461">
@@ -34327,7 +34327,7 @@
         <v>22</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>59</v>
@@ -34336,13 +34336,13 @@
         <v>421</v>
       </c>
       <c r="G461" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H461" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H461" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I461" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J461" s="2" t="s">
         <v>29</v>
@@ -34380,8 +34380,8 @@
       <c r="U461" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V461" s="1" t="s">
-        <v>36</v>
+      <c r="V461" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="462">
@@ -34395,7 +34395,7 @@
         <v>22</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>60</v>
@@ -34404,13 +34404,13 @@
         <v>421</v>
       </c>
       <c r="G462" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H462" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H462" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I462" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J462" s="2" t="s">
         <v>29</v>
@@ -34448,8 +34448,8 @@
       <c r="U462" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V462" s="1" t="s">
-        <v>36</v>
+      <c r="V462" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="463">
@@ -34472,13 +34472,13 @@
         <v>421</v>
       </c>
       <c r="G463" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H463" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H463" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I463" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J463" s="2" t="s">
         <v>29</v>
@@ -34516,8 +34516,8 @@
       <c r="U463" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V463" s="1" t="s">
-        <v>36</v>
+      <c r="V463" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="464">
@@ -34531,7 +34531,7 @@
         <v>22</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>65</v>
@@ -34540,13 +34540,13 @@
         <v>421</v>
       </c>
       <c r="G464" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H464" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H464" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I464" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J464" s="2" t="s">
         <v>29</v>
@@ -34584,8 +34584,8 @@
       <c r="U464" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V464" s="1" t="s">
-        <v>36</v>
+      <c r="V464" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="465">
@@ -34599,7 +34599,7 @@
         <v>22</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>67</v>
@@ -34608,13 +34608,13 @@
         <v>421</v>
       </c>
       <c r="G465" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H465" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H465" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I465" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J465" s="2" t="s">
         <v>29</v>
@@ -34652,8 +34652,8 @@
       <c r="U465" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V465" s="1" t="s">
-        <v>36</v>
+      <c r="V465" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="466">
@@ -34667,7 +34667,7 @@
         <v>22</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>70</v>
@@ -34676,13 +34676,13 @@
         <v>421</v>
       </c>
       <c r="G466" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H466" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H466" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I466" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J466" s="2" t="s">
         <v>29</v>
@@ -34720,8 +34720,8 @@
       <c r="U466" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V466" s="1" t="s">
-        <v>36</v>
+      <c r="V466" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="467">
@@ -34735,7 +34735,7 @@
         <v>22</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>72</v>
@@ -34744,13 +34744,13 @@
         <v>421</v>
       </c>
       <c r="G467" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H467" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H467" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I467" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J467" s="2" t="s">
         <v>29</v>
@@ -34788,8 +34788,8 @@
       <c r="U467" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V467" s="1" t="s">
-        <v>36</v>
+      <c r="V467" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="468">
@@ -34803,7 +34803,7 @@
         <v>22</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>74</v>
@@ -34812,13 +34812,13 @@
         <v>421</v>
       </c>
       <c r="G468" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H468" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H468" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I468" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J468" s="2" t="s">
         <v>29</v>
@@ -34856,8 +34856,8 @@
       <c r="U468" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V468" s="1" t="s">
-        <v>36</v>
+      <c r="V468" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="469">
@@ -34871,7 +34871,7 @@
         <v>22</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>75</v>
@@ -34880,13 +34880,13 @@
         <v>421</v>
       </c>
       <c r="G469" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H469" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H469" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I469" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J469" s="2" t="s">
         <v>29</v>
@@ -34924,8 +34924,8 @@
       <c r="U469" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V469" s="1" t="s">
-        <v>36</v>
+      <c r="V469" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="470">
@@ -34939,7 +34939,7 @@
         <v>22</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>77</v>
@@ -34948,13 +34948,13 @@
         <v>421</v>
       </c>
       <c r="G470" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H470" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H470" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I470" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J470" s="2" t="s">
         <v>29</v>
@@ -34992,8 +34992,8 @@
       <c r="U470" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V470" s="1" t="s">
-        <v>36</v>
+      <c r="V470" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="471">
@@ -35016,13 +35016,13 @@
         <v>421</v>
       </c>
       <c r="G471" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H471" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H471" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I471" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J471" s="2" t="s">
         <v>29</v>
@@ -35060,8 +35060,8 @@
       <c r="U471" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V471" s="1" t="s">
-        <v>36</v>
+      <c r="V471" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="472">
@@ -35075,7 +35075,7 @@
         <v>22</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>80</v>
@@ -35084,13 +35084,13 @@
         <v>421</v>
       </c>
       <c r="G472" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H472" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H472" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I472" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J472" s="2" t="s">
         <v>29</v>
@@ -35128,8 +35128,8 @@
       <c r="U472" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V472" s="1" t="s">
-        <v>36</v>
+      <c r="V472" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="473">
@@ -35152,13 +35152,13 @@
         <v>421</v>
       </c>
       <c r="G473" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H473" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H473" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I473" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J473" s="2" t="s">
         <v>29</v>
@@ -35196,8 +35196,8 @@
       <c r="U473" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V473" s="1" t="s">
-        <v>36</v>
+      <c r="V473" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="474">
@@ -35211,7 +35211,7 @@
         <v>22</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>84</v>
@@ -35220,13 +35220,13 @@
         <v>421</v>
       </c>
       <c r="G474" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H474" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H474" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I474" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J474" s="2" t="s">
         <v>29</v>
@@ -35264,8 +35264,8 @@
       <c r="U474" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V474" s="1" t="s">
-        <v>36</v>
+      <c r="V474" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="475">
@@ -35279,7 +35279,7 @@
         <v>22</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>86</v>
@@ -35288,13 +35288,13 @@
         <v>421</v>
       </c>
       <c r="G475" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H475" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H475" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I475" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J475" s="2" t="s">
         <v>29</v>
@@ -35332,8 +35332,8 @@
       <c r="U475" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V475" s="1" t="s">
-        <v>36</v>
+      <c r="V475" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="476">
@@ -35347,7 +35347,7 @@
         <v>22</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>88</v>
@@ -35356,13 +35356,13 @@
         <v>421</v>
       </c>
       <c r="G476" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H476" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H476" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I476" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J476" s="2" t="s">
         <v>29</v>
@@ -35400,8 +35400,8 @@
       <c r="U476" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V476" s="1" t="s">
-        <v>36</v>
+      <c r="V476" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="477">
@@ -35415,7 +35415,7 @@
         <v>22</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>90</v>
@@ -35424,13 +35424,13 @@
         <v>421</v>
       </c>
       <c r="G477" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H477" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H477" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I477" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J477" s="2" t="s">
         <v>29</v>
@@ -35468,8 +35468,8 @@
       <c r="U477" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V477" s="1" t="s">
-        <v>36</v>
+      <c r="V477" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="478">
@@ -35483,7 +35483,7 @@
         <v>22</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>92</v>
@@ -35492,13 +35492,13 @@
         <v>421</v>
       </c>
       <c r="G478" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H478" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H478" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I478" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J478" s="2" t="s">
         <v>29</v>
@@ -35536,8 +35536,8 @@
       <c r="U478" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V478" s="1" t="s">
-        <v>36</v>
+      <c r="V478" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="479">
@@ -35560,13 +35560,13 @@
         <v>421</v>
       </c>
       <c r="G479" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H479" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H479" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I479" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J479" s="2" t="s">
         <v>29</v>
@@ -35604,8 +35604,8 @@
       <c r="U479" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V479" s="1" t="s">
-        <v>36</v>
+      <c r="V479" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="480">
@@ -35619,7 +35619,7 @@
         <v>22</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>96</v>
@@ -35628,13 +35628,13 @@
         <v>421</v>
       </c>
       <c r="G480" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H480" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H480" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I480" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J480" s="2" t="s">
         <v>29</v>
@@ -35672,8 +35672,8 @@
       <c r="U480" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V480" s="1" t="s">
-        <v>36</v>
+      <c r="V480" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="481">
@@ -35687,7 +35687,7 @@
         <v>22</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>98</v>
@@ -35696,13 +35696,13 @@
         <v>421</v>
       </c>
       <c r="G481" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H481" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H481" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I481" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J481" s="2" t="s">
         <v>29</v>
@@ -35755,7 +35755,7 @@
         <v>22</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>761</v>
+        <v>843</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>100</v>
@@ -35764,13 +35764,13 @@
         <v>421</v>
       </c>
       <c r="G482" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H482" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H482" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="I482" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J482" s="2" t="s">
         <v>29</v>
@@ -35785,7 +35785,7 @@
         <v>32</v>
       </c>
       <c r="N482" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O482" s="2" t="s">
         <v>34</v>
@@ -35876,8 +35876,8 @@
       <c r="U483" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V483" s="1" t="s">
-        <v>36</v>
+      <c r="V483" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="484">
@@ -35944,8 +35944,8 @@
       <c r="U484" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V484" s="1" t="s">
-        <v>36</v>
+      <c r="V484" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="485">
@@ -36012,8 +36012,8 @@
       <c r="U485" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V485" s="1" t="s">
-        <v>36</v>
+      <c r="V485" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="486">
@@ -36080,8 +36080,8 @@
       <c r="U486" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V486" s="1" t="s">
-        <v>36</v>
+      <c r="V486" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="487">
@@ -36148,8 +36148,8 @@
       <c r="U487" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V487" s="1" t="s">
-        <v>36</v>
+      <c r="V487" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="488">
@@ -36216,8 +36216,8 @@
       <c r="U488" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V488" s="1" t="s">
-        <v>36</v>
+      <c r="V488" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="489">
@@ -36284,8 +36284,8 @@
       <c r="U489" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V489" s="1" t="s">
-        <v>36</v>
+      <c r="V489" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="490">
@@ -36305,7 +36305,7 @@
         <v>855</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G490" s="1" t="s">
         <v>856</v>
@@ -36352,8 +36352,8 @@
       <c r="U490" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V490" s="1" t="s">
-        <v>36</v>
+      <c r="V490" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="491">
@@ -36373,7 +36373,7 @@
         <v>860</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G491" s="1" t="s">
         <v>856</v>
@@ -36420,8 +36420,8 @@
       <c r="U491" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V491" s="1" t="s">
-        <v>36</v>
+      <c r="V491" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="492">
@@ -36441,7 +36441,7 @@
         <v>210</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G492" s="1" t="s">
         <v>856</v>
@@ -36488,8 +36488,8 @@
       <c r="U492" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V492" s="1" t="s">
-        <v>36</v>
+      <c r="V492" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="493">
@@ -36509,7 +36509,7 @@
         <v>224</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G493" s="1" t="s">
         <v>856</v>
@@ -36556,8 +36556,8 @@
       <c r="U493" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V493" s="1" t="s">
-        <v>36</v>
+      <c r="V493" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="494">
@@ -36577,7 +36577,7 @@
         <v>228</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G494" s="1" t="s">
         <v>856</v>
@@ -36624,8 +36624,8 @@
       <c r="U494" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V494" s="1" t="s">
-        <v>36</v>
+      <c r="V494" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="495">
@@ -36645,7 +36645,7 @@
         <v>232</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G495" s="1" t="s">
         <v>856</v>
@@ -36692,8 +36692,8 @@
       <c r="U495" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V495" s="1" t="s">
-        <v>36</v>
+      <c r="V495" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="496">
@@ -36713,7 +36713,7 @@
         <v>236</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G496" s="1" t="s">
         <v>856</v>
@@ -36760,8 +36760,8 @@
       <c r="U496" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V496" s="1" t="s">
-        <v>36</v>
+      <c r="V496" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="497">
@@ -36781,7 +36781,7 @@
         <v>240</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G497" s="1" t="s">
         <v>856</v>
@@ -36828,8 +36828,8 @@
       <c r="U497" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V497" s="1" t="s">
-        <v>36</v>
+      <c r="V497" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="498">
@@ -36849,7 +36849,7 @@
         <v>244</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G498" s="1" t="s">
         <v>856</v>
@@ -36896,8 +36896,8 @@
       <c r="U498" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V498" s="1" t="s">
-        <v>36</v>
+      <c r="V498" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="499">
@@ -36917,7 +36917,7 @@
         <v>248</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G499" s="1" t="s">
         <v>856</v>
@@ -36964,8 +36964,8 @@
       <c r="U499" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V499" s="1" t="s">
-        <v>36</v>
+      <c r="V499" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="500">
@@ -36985,7 +36985,7 @@
         <v>24</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G500" s="1" t="s">
         <v>856</v>
@@ -37032,8 +37032,8 @@
       <c r="U500" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V500" s="1" t="s">
-        <v>36</v>
+      <c r="V500" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="501">
@@ -37053,7 +37053,7 @@
         <v>41</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G501" s="1" t="s">
         <v>856</v>
@@ -37100,8 +37100,8 @@
       <c r="U501" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V501" s="1" t="s">
-        <v>36</v>
+      <c r="V501" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="502">
@@ -37121,7 +37121,7 @@
         <v>44</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G502" s="1" t="s">
         <v>856</v>
@@ -37168,8 +37168,8 @@
       <c r="U502" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V502" s="1" t="s">
-        <v>36</v>
+      <c r="V502" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="503">
@@ -37189,7 +37189,7 @@
         <v>53</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G503" s="1" t="s">
         <v>856</v>
@@ -37236,8 +37236,8 @@
       <c r="U503" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V503" s="1" t="s">
-        <v>36</v>
+      <c r="V503" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="504">
@@ -37257,7 +37257,7 @@
         <v>56</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G504" s="1" t="s">
         <v>856</v>
@@ -37304,8 +37304,8 @@
       <c r="U504" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V504" s="1" t="s">
-        <v>36</v>
+      <c r="V504" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="505">
@@ -37325,7 +37325,7 @@
         <v>59</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G505" s="1" t="s">
         <v>856</v>
@@ -37372,8 +37372,8 @@
       <c r="U505" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V505" s="1" t="s">
-        <v>36</v>
+      <c r="V505" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="506">
@@ -37393,7 +37393,7 @@
         <v>60</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G506" s="1" t="s">
         <v>856</v>
@@ -37440,8 +37440,8 @@
       <c r="U506" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V506" s="1" t="s">
-        <v>36</v>
+      <c r="V506" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="507">
@@ -37461,7 +37461,7 @@
         <v>62</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G507" s="1" t="s">
         <v>856</v>
@@ -37508,8 +37508,8 @@
       <c r="U507" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V507" s="1" t="s">
-        <v>36</v>
+      <c r="V507" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-CAR.xlsx
+++ b/Excel-XLSX/UN-CAR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="917">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>KTp76Q</t>
+    <t>JF2d8d</t>
   </si>
   <si>
     <t>1964</t>
@@ -2658,19 +2658,19 @@
     <t>509</t>
   </si>
   <si>
-    <t>453301</t>
-  </si>
-  <si>
-    <t>117963</t>
+    <t>469342</t>
+  </si>
+  <si>
+    <t>151765</t>
   </si>
   <si>
     <t>510</t>
   </si>
   <si>
-    <t>4701</t>
-  </si>
-  <si>
-    <t>29040</t>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>7814</t>
   </si>
   <si>
     <t>511</t>
@@ -2679,12 +2679,24 @@
     <t>513</t>
   </si>
   <si>
-    <t>6448</t>
+    <t>6501</t>
   </si>
   <si>
     <t>514</t>
   </si>
   <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -2694,7 +2706,7 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>515</t>
+    <t>516</t>
   </si>
   <si>
     <t>Ethiopia</t>
@@ -2703,27 +2715,24 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>516</t>
-  </si>
-  <si>
     <t>517</t>
   </si>
   <si>
     <t>519</t>
   </si>
   <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MAU</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>MAU</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
     <t>521</t>
   </si>
   <si>
@@ -2733,22 +2742,31 @@
     <t>523</t>
   </si>
   <si>
-    <t>2825</t>
-  </si>
-  <si>
-    <t>809</t>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>1539</t>
   </si>
   <si>
     <t>524</t>
   </si>
   <si>
-    <t>28659</t>
+    <t>29932</t>
   </si>
   <si>
     <t>525</t>
   </si>
   <si>
     <t>526</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
   </si>
 </sst>
 </file>
@@ -3133,7 +3151,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V527"/>
+  <dimension ref="A1:V528"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -37726,7 +37744,7 @@
         <v>31</v>
       </c>
       <c r="N509" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O509" s="2" t="s">
         <v>33</v>
@@ -37930,10 +37948,10 @@
         <v>31</v>
       </c>
       <c r="N512" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="O512" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="P512" s="2" t="s">
         <v>33</v>
@@ -37998,7 +38016,7 @@
         <v>31</v>
       </c>
       <c r="N513" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O513" s="2" t="s">
         <v>67</v>
@@ -38069,7 +38087,7 @@
         <v>887</v>
       </c>
       <c r="O514" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P514" s="2" t="s">
         <v>33</v>
@@ -38110,7 +38128,7 @@
         <v>877</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="G515" s="1" t="s">
         <v>889</v>
@@ -38134,10 +38152,10 @@
         <v>31</v>
       </c>
       <c r="N515" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O515" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P515" s="2" t="s">
         <v>33</v>
@@ -38178,7 +38196,7 @@
         <v>877</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G516" s="1" t="s">
         <v>893</v>
@@ -38187,7 +38205,7 @@
         <v>894</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="J516" s="2" t="s">
         <v>28</v>
@@ -38240,22 +38258,22 @@
         <v>22</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>877</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>602</v>
+        <v>897</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>603</v>
+        <v>898</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>604</v>
+        <v>898</v>
       </c>
       <c r="J517" s="2" t="s">
         <v>28</v>
@@ -38270,7 +38288,7 @@
         <v>31</v>
       </c>
       <c r="N517" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O517" s="2" t="s">
         <v>33</v>
@@ -38308,22 +38326,22 @@
         <v>22</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>877</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>397</v>
+        <v>602</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>398</v>
+        <v>603</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>399</v>
+        <v>604</v>
       </c>
       <c r="J518" s="2" t="s">
         <v>28</v>
@@ -38338,7 +38356,7 @@
         <v>31</v>
       </c>
       <c r="N518" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O518" s="2" t="s">
         <v>33</v>
@@ -38382,16 +38400,16 @@
         <v>877</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J519" s="2" t="s">
         <v>28</v>
@@ -38406,10 +38424,10 @@
         <v>31</v>
       </c>
       <c r="N519" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O519" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P519" s="2" t="s">
         <v>33</v>
@@ -38444,22 +38462,22 @@
         <v>22</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>877</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>203</v>
+        <v>901</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>204</v>
+        <v>902</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>204</v>
+        <v>903</v>
       </c>
       <c r="J520" s="2" t="s">
         <v>28</v>
@@ -38474,10 +38492,10 @@
         <v>31</v>
       </c>
       <c r="N520" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O520" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P520" s="2" t="s">
         <v>33</v>
@@ -38512,22 +38530,22 @@
         <v>22</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>877</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>899</v>
+        <v>207</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>900</v>
+        <v>208</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>901</v>
+        <v>208</v>
       </c>
       <c r="J521" s="2" t="s">
         <v>28</v>
@@ -38542,10 +38560,10 @@
         <v>31</v>
       </c>
       <c r="N521" s="2" t="s">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="O521" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P521" s="2" t="s">
         <v>33</v>
@@ -38580,22 +38598,22 @@
         <v>22</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>877</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="I522" s="1" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="J522" s="2" t="s">
         <v>28</v>
@@ -38610,7 +38628,7 @@
         <v>31</v>
       </c>
       <c r="N522" s="2" t="s">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="O522" s="2" t="s">
         <v>33</v>
@@ -38648,7 +38666,7 @@
         <v>22</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>877</v>
@@ -38716,7 +38734,7 @@
         <v>22</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>877</v>
@@ -38746,13 +38764,13 @@
         <v>31</v>
       </c>
       <c r="N524" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="O524" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="P524" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="Q524" s="2" t="s">
         <v>33</v>
@@ -38784,7 +38802,7 @@
         <v>22</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>877</v>
@@ -38814,10 +38832,10 @@
         <v>31</v>
       </c>
       <c r="N525" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="O525" s="2" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="P525" s="2" t="s">
         <v>33</v>
@@ -38852,7 +38870,7 @@
         <v>22</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>877</v>
@@ -38885,7 +38903,7 @@
         <v>56</v>
       </c>
       <c r="O526" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P526" s="2" t="s">
         <v>33</v>
@@ -38920,7 +38938,7 @@
         <v>22</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>877</v>
@@ -38950,7 +38968,7 @@
         <v>31</v>
       </c>
       <c r="N527" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O527" s="2" t="s">
         <v>33</v>
@@ -38974,6 +38992,74 @@
         <v>34</v>
       </c>
       <c r="V527" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="J528" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L528" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M528" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O528" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P528" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q528" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R528" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S528" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T528" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U528" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V528" s="2" t="s">
         <v>33</v>
       </c>
     </row>
